--- a/models/calculation engines/economic_overlay/outputs/mining_costs/washing_factor.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/mining_costs/washing_factor.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A162"/>
+  <dimension ref="A1:A175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,6 +1246,71 @@
         <v>2.424242424242424</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2.424242424242424</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2.424242424242424</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2.424242424242424</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2.424242424242424</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2.424242424242424</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>2.424242424242424</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2.424242424242424</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2.424242424242424</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2.424242424242424</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2.424242424242424</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2.424242424242424</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2.424242424242424</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>2.424242424242424</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
